--- a/myapp/files/9_MethodComparePercent/Scenario 319.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 319.xlsx
@@ -584,7 +584,7 @@
         <v>5514</v>
       </c>
       <c r="F2" t="n">
-        <v>5.27146011988413</v>
+        <v>1.0607864902665</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -596,7 +596,7 @@
         <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.84615384615385</v>
+        <v>0.813008130081301</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -622,7 +622,7 @@
         <v>5601</v>
       </c>
       <c r="F3" t="n">
-        <v>5.35463332090515</v>
+        <v>1.07752360028703</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.84615384615385</v>
+        <v>0.813008130081301</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -660,7 +660,7 @@
         <v>4218</v>
       </c>
       <c r="F4" t="n">
-        <v>4.03246622881234</v>
+        <v>0.811461265133137</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1.92307692307692</v>
+        <v>0.40650406504065</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.0380913538398201</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.40650406504065</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.0253942358932134</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.40650406504065</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.0380913538398201</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.40650406504065</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1755</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.337627909034769</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -859,10 +859,10 @@
         <v>1.49253731343284</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.813008130081301</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>12060</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2.32010973387995</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
@@ -897,10 +897,10 @@
         <v>2.98507462686567</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.4390243902439</v>
       </c>
       <c r="K10" t="n">
         <v>2</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>9612</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.84916208640581</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -935,10 +935,10 @@
         <v>1.49253731343284</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2.4390243902439</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>135</v>
       </c>
       <c r="F12" t="n">
-        <v>0.129061863653311</v>
+        <v>0.0259713776180591</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -976,7 +976,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1.92307692307692</v>
+        <v>0.40650406504065</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>2952</v>
+        <v>12926</v>
       </c>
       <c r="F13" t="n">
-        <v>2.82215275188574</v>
+        <v>2.48671131178543</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
@@ -1011,10 +1011,10 @@
         <v>2.98507462686567</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
-        <v>3.84615384615385</v>
+        <v>3.2520325203252</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>2497</v>
+        <v>29406</v>
       </c>
       <c r="F14" t="n">
-        <v>2.38716647068384</v>
+        <v>5.65714318693813</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
@@ -1049,10 +1049,10 @@
         <v>2.98507462686567</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>5.76923076923077</v>
+        <v>5.69105691056911</v>
       </c>
       <c r="K14" t="n">
         <v>5</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>38316</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>7.37125410973003</v>
       </c>
       <c r="G15" t="n">
         <v>3</v>
@@ -1087,10 +1087,10 @@
         <v>4.47761194029851</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>8.94308943089431</v>
       </c>
       <c r="K15" t="n">
         <v>2</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>1628</v>
+        <v>37316</v>
       </c>
       <c r="F16" t="n">
-        <v>1.55639047427845</v>
+        <v>7.17887353478145</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1125,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J16" t="n">
-        <v>1.92307692307692</v>
+        <v>7.31707317073171</v>
       </c>
       <c r="K16" t="n">
         <v>4</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>703</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.135243544188856</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.40650406504065</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>10418</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2.00422082981437</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>3.2520325203252</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>3768</v>
+        <v>36391</v>
       </c>
       <c r="F19" t="n">
-        <v>3.60226001663464</v>
+        <v>7.000921502954</v>
       </c>
       <c r="G19" t="n">
         <v>4</v>
@@ -1239,10 +1239,10 @@
         <v>5.97014925373134</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J19" t="n">
-        <v>5.76923076923077</v>
+        <v>6.91056910569106</v>
       </c>
       <c r="K19" t="n">
         <v>4</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>10687</v>
+        <v>78998</v>
       </c>
       <c r="F20" t="n">
-        <v>10.216919532318</v>
+        <v>15.1976806597884</v>
       </c>
       <c r="G20" t="n">
         <v>30</v>
@@ -1277,16 +1277,16 @@
         <v>44.7761194029851</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="J20" t="n">
-        <v>9.61538461538461</v>
+        <v>14.6341463414634</v>
       </c>
       <c r="K20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L20" t="n">
-        <v>16.4179104477612</v>
+        <v>17.910447761194</v>
       </c>
     </row>
     <row r="21">
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>7839</v>
+        <v>75508</v>
       </c>
       <c r="F21" t="n">
-        <v>7.4941922161356</v>
+        <v>14.5262724532179</v>
       </c>
       <c r="G21" t="n">
         <v>9</v>
@@ -1315,16 +1315,16 @@
         <v>13.4328358208955</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="J21" t="n">
-        <v>7.69230769230769</v>
+        <v>11.3821138211382</v>
       </c>
       <c r="K21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L21" t="n">
-        <v>14.9253731343284</v>
+        <v>13.4328358208955</v>
       </c>
     </row>
     <row r="22">
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>2500</v>
+        <v>2690</v>
       </c>
       <c r="F22" t="n">
-        <v>2.39003451209835</v>
+        <v>0.517503746611697</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>1.92307692307692</v>
+        <v>0.813008130081301</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>5268</v>
+        <v>8043</v>
       </c>
       <c r="F23" t="n">
-        <v>5.03628072389365</v>
+        <v>1.54731696431148</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1391,10 +1391,10 @@
         <v>1.49253731343284</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>3.84615384615385</v>
+        <v>2.03252032520325</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>14327</v>
+        <v>27733</v>
       </c>
       <c r="F24" t="n">
-        <v>13.6968097819333</v>
+        <v>5.33529048504914</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1429,10 +1429,10 @@
         <v>1.49253731343284</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J24" t="n">
-        <v>11.5384615384615</v>
+        <v>4.8780487804878</v>
       </c>
       <c r="K24" t="n">
         <v>6</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>21326</v>
+        <v>55067</v>
       </c>
       <c r="F25" t="n">
-        <v>20.3879504020038</v>
+        <v>10.5938211206938</v>
       </c>
       <c r="G25" t="n">
         <v>5</v>
@@ -1467,10 +1467,10 @@
         <v>7.46268656716418</v>
       </c>
       <c r="I25" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J25" t="n">
-        <v>21.1538461538462</v>
+        <v>11.3821138211382</v>
       </c>
       <c r="K25" t="n">
         <v>11</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>16341</v>
+        <v>66865</v>
       </c>
       <c r="F26" t="n">
-        <v>15.6222215848797</v>
+        <v>12.8635271439372</v>
       </c>
       <c r="G26" t="n">
         <v>6</v>
@@ -1505,10 +1505,10 @@
         <v>8.95522388059702</v>
       </c>
       <c r="I26" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="J26" t="n">
-        <v>15.3846153846154</v>
+        <v>9.75609756097561</v>
       </c>
       <c r="K26" t="n">
         <v>9</v>
